--- a/data/CovidMoscow.xlsx
+++ b/data/CovidMoscow.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>date</t>
   </si>
@@ -273,6 +273,12 @@
   </si>
   <si>
     <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
   </si>
 </sst>
 </file>
@@ -1753,6 +1759,40 @@
         <v>3.0</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="n" s="2">
+        <v>43979.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2054.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>171363.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="n" s="2">
+        <v>43978.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2140.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>173503.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/CovidMoscow.xlsx
+++ b/data/CovidMoscow.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>date</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
   </si>
 </sst>
 </file>
@@ -1764,16 +1767,16 @@
         <v>87</v>
       </c>
       <c r="B85" t="n" s="2">
-        <v>43979.0</v>
+        <v>43978.0</v>
       </c>
       <c r="C85" t="n">
-        <v>2054.0</v>
+        <v>2140.0</v>
       </c>
       <c r="D85" t="n">
-        <v>171363.0</v>
+        <v>171449.0</v>
       </c>
       <c r="E85" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="86">
@@ -1781,16 +1784,33 @@
         <v>88</v>
       </c>
       <c r="B86" t="n" s="2">
-        <v>43978.0</v>
+        <v>43979.0</v>
       </c>
       <c r="C86" t="n">
-        <v>2140.0</v>
+        <v>2054.0</v>
       </c>
       <c r="D86" t="n">
         <v>173503.0</v>
       </c>
       <c r="E86" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="n" s="2">
+        <v>43980.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2332.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>175835.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>

--- a/data/CovidMoscow.xlsx
+++ b/data/CovidMoscow.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>date</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
   </si>
 </sst>
 </file>
@@ -1813,6 +1816,23 @@
         <v>6.0</v>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="n" s="2">
+        <v>43981.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2367.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>178202.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/CovidMoscow.xlsx
+++ b/data/CovidMoscow.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>date</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
   </si>
 </sst>
 </file>
@@ -1833,6 +1836,23 @@
         <v>7.0</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="n" s="2">
+        <v>43982.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2595.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>180797.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/CovidMoscow.xlsx
+++ b/data/CovidMoscow.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>date</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
 </sst>
 </file>
@@ -1853,6 +1859,40 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="n" s="2">
+        <v>43984.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2286.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>183083.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="n" s="2">
+        <v>43983.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2297.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>185380.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/data/CovidMoscow.xlsx
+++ b/data/CovidMoscow.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>date</t>
   </si>
@@ -294,6 +294,18 @@
   </si>
   <si>
     <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
   </si>
 </sst>
 </file>
@@ -1864,16 +1876,16 @@
         <v>92</v>
       </c>
       <c r="B90" t="n" s="2">
-        <v>43984.0</v>
+        <v>43983.0</v>
       </c>
       <c r="C90" t="n">
-        <v>2286.0</v>
+        <v>2297.0</v>
       </c>
       <c r="D90" t="n">
-        <v>183083.0</v>
+        <v>183094.0</v>
       </c>
       <c r="E90" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="91">
@@ -1881,16 +1893,84 @@
         <v>93</v>
       </c>
       <c r="B91" t="n" s="2">
-        <v>43983.0</v>
+        <v>43984.0</v>
       </c>
       <c r="C91" t="n">
-        <v>2297.0</v>
+        <v>2286.0</v>
       </c>
       <c r="D91" t="n">
         <v>185380.0</v>
       </c>
       <c r="E91" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="n" s="2">
+        <v>43985.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1842.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>187222.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="n" s="2">
+        <v>43986.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>189220.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="n" s="2">
+        <v>43987.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1855.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>191075.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="n" s="2">
+        <v>43988.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>193067.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
